--- a/Files/Excel/Lamborghini.xlsx
+++ b/Files/Excel/Lamborghini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D92CE-7E18-4461-909A-1FBFB9457B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B344EA3-BAC6-42BE-824E-A1E35A727329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,99 +20,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Lamborghini 350 GT</t>
-  </si>
-  <si>
-    <t>Lamborghini 400 GT</t>
-  </si>
-  <si>
-    <t>Lamborghini Athon</t>
-  </si>
-  <si>
-    <t>Lamborghini Aventador</t>
-  </si>
-  <si>
-    <t>Lamborghini Bravo</t>
-  </si>
-  <si>
-    <t>Lamborghini Calà</t>
-  </si>
-  <si>
-    <t>Lamborghini Countach</t>
-  </si>
-  <si>
-    <t>Lamborghini Diablo</t>
-  </si>
-  <si>
-    <t>Lamborghini Espada</t>
-  </si>
-  <si>
-    <t>Lamborghini Estoque</t>
-  </si>
-  <si>
-    <t>Lamborghini Faena</t>
-  </si>
-  <si>
-    <t>Lamborghini Gallardo</t>
-  </si>
-  <si>
-    <t>Lamborghini Huracán</t>
-  </si>
-  <si>
-    <t>Lamborghini Islero</t>
-  </si>
-  <si>
-    <t>Lamborghini Jalpa</t>
-  </si>
-  <si>
-    <t>Lamborghini Jarama</t>
-  </si>
-  <si>
-    <t>Lamborghini Marzal</t>
-  </si>
-  <si>
-    <t>Lamborghini Murciélago LP640</t>
-  </si>
-  <si>
-    <t>Lamborghini Sián</t>
-  </si>
-  <si>
-    <t>Lamborghini LM002</t>
-  </si>
-  <si>
-    <t>Lamborghini Marco Polo</t>
-  </si>
-  <si>
-    <t>Lamborghini Miura</t>
-  </si>
-  <si>
-    <t>Lamborghini Murciélago</t>
-  </si>
-  <si>
-    <t>Lamborghini Reventón</t>
-  </si>
-  <si>
-    <t>Lamborghini Sesto Elemento</t>
-  </si>
-  <si>
-    <t>Lamborghini Silhouette</t>
-  </si>
-  <si>
-    <t>Lamborghini Urraco</t>
-  </si>
-  <si>
-    <t>Lamborghini Urus</t>
-  </si>
-  <si>
-    <t>Lamborghini Veneno</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Athon</t>
+  </si>
+  <si>
+    <t>Aventador</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Calà</t>
+  </si>
+  <si>
+    <t>Countach</t>
+  </si>
+  <si>
+    <t>Diablo</t>
+  </si>
+  <si>
+    <t>Espada</t>
+  </si>
+  <si>
+    <t>Estoque</t>
+  </si>
+  <si>
+    <t>Faena</t>
+  </si>
+  <si>
+    <t>Gallardo</t>
+  </si>
+  <si>
+    <t>Huracán</t>
+  </si>
+  <si>
+    <t>Islero</t>
+  </si>
+  <si>
+    <t>Jalpa</t>
+  </si>
+  <si>
+    <t>Jarama</t>
+  </si>
+  <si>
+    <t>Marzal</t>
+  </si>
+  <si>
+    <t>Sián</t>
+  </si>
+  <si>
+    <t>Polo</t>
+  </si>
+  <si>
+    <t>Miura</t>
+  </si>
+  <si>
+    <t>Murciélago</t>
+  </si>
+  <si>
+    <t>Reventón</t>
+  </si>
+  <si>
+    <t>Elemento</t>
+  </si>
+  <si>
+    <t>Silhouette</t>
+  </si>
+  <si>
+    <t>Urraco</t>
+  </si>
+  <si>
+    <t>Urus</t>
+  </si>
+  <si>
+    <t>Veneno</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>Lamborghini</t>
   </si>
 </sst>
 </file>
@@ -475,255 +478,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>350</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>640</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>28</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
